--- a/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
+++ b/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B583F-7C5E-45BB-9D26-756C445F2215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF79B08-8EB2-4C94-BFFB-E800401DF1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" firstSheet="21" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -25155,8 +25155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -30778,8 +30778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -31272,7 +31272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>

--- a/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
+++ b/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF79B08-8EB2-4C94-BFFB-E800401DF1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CE6FBA-06F9-4C69-839B-4F15DD6DFDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="6" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="639">
   <si>
     <t>ID1</t>
   </si>
@@ -3385,13 +3385,31 @@
     <t>reference date: when the greenhouse was warmed</t>
   </si>
   <si>
-    <t>reference date: April</t>
-  </si>
-  <si>
     <t>looks like we also have data for 2013,14,15</t>
   </si>
   <si>
     <t>data from 2012^^</t>
+  </si>
+  <si>
+    <t># reference date: April 1</t>
+  </si>
+  <si>
+    <t>maybe we need to exclude this?</t>
+  </si>
+  <si>
+    <t>reference date: April 1</t>
+  </si>
+  <si>
+    <t>** note: "Populations differed significantly for nearly all traits, and at a broad geographic scale, those from higher latitude environ ments with lower winter</t>
+  </si>
+  <si>
+    <t>temperatures flushed earlier in the spring, suffered less cold injury in the fall, and allocated more biomass to shoots in the common-garden environment than</t>
+  </si>
+  <si>
+    <t>those from milder environments. However, clinal variation pat terns that corresponded to climatic gradients varied by region"</t>
+  </si>
+  <si>
+    <t>** note: study conducted in New Zealand</t>
   </si>
 </sst>
 </file>
@@ -4163,7 +4181,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A5" sqref="A5:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -4323,7 +4341,7 @@
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -4533,6 +4551,9 @@
       <c r="L8">
         <v>35.799999999999997</v>
       </c>
+      <c r="N8" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9">
@@ -8013,7 +8034,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O15" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -8192,7 +8213,7 @@
         <v>110</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -10289,10 +10310,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -10309,17 +10330,17 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -10357,7 +10378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -10392,7 +10413,7 @@
         <v>109.7839286</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -10427,7 +10448,7 @@
         <v>103.92222219999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>228</v>
       </c>
@@ -10462,7 +10483,7 @@
         <v>97.606190479999995</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -10497,7 +10518,7 @@
         <v>99.1672619</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>230</v>
       </c>
@@ -10532,7 +10553,7 @@
         <v>109.5916667</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -10567,7 +10588,7 @@
         <v>94.924659860000006</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -10602,7 +10623,7 @@
         <v>106.92083340000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -10636,8 +10657,11 @@
       <c r="K12" s="6">
         <v>94.665714289999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="N12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -10671,8 +10695,11 @@
       <c r="K13" s="6">
         <v>98.866666679999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="O13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -10706,8 +10733,11 @@
       <c r="K14" s="6">
         <v>99.380952370000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="O14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>236</v>
       </c>
@@ -10742,7 +10772,7 @@
         <v>100.6428571</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>237</v>
       </c>
@@ -19520,7 +19550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
@@ -23737,13 +23767,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="K20" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="K21" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -23762,10 +23792,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -23784,17 +23814,17 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -23832,7 +23862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -23867,7 +23897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -23902,7 +23932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -23937,7 +23967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -23971,8 +24001,11 @@
       <c r="K8">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="N8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -24007,7 +24040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -24042,7 +24075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -24077,7 +24110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -24112,7 +24145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -24147,7 +24180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -24182,7 +24215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -24217,7 +24250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -30776,10 +30809,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -31257,6 +31290,11 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.6">
+      <c r="K25" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -31272,7 +31310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>

--- a/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
+++ b/data/Aitken_Bemmels _2015_Dryad_dataset_SpringEvents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CE6FBA-06F9-4C69-839B-4F15DD6DFDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3703836E-6A92-4C4F-B68E-EF3AA5AF9A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
